--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Slit1-Sdc1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Slit1-Sdc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,16 +91,13 @@
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Slit1</t>
   </si>
   <si>
     <t>Sdc1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.327101125211997</v>
+        <v>0.126513</v>
       </c>
       <c r="H2">
-        <v>0.327101125211997</v>
+        <v>0.379539</v>
       </c>
       <c r="I2">
-        <v>0.198308293066664</v>
+        <v>0.05885990084637888</v>
       </c>
       <c r="J2">
-        <v>0.198308293066664</v>
+        <v>0.05885990084637888</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.718740829948282</v>
+        <v>1.377875666666667</v>
       </c>
       <c r="N2">
-        <v>0.718740829948282</v>
+        <v>4.133627000000001</v>
       </c>
       <c r="O2">
-        <v>0.03041796924217072</v>
+        <v>0.0498189471055581</v>
       </c>
       <c r="P2">
-        <v>0.03041796924217072</v>
+        <v>0.04981894710555809</v>
       </c>
       <c r="Q2">
-        <v>0.2351009342118877</v>
+        <v>0.174319184217</v>
       </c>
       <c r="R2">
-        <v>0.2351009342118877</v>
+        <v>1.568872657953</v>
       </c>
       <c r="S2">
-        <v>0.006032135558969164</v>
+        <v>0.002932338286904144</v>
       </c>
       <c r="T2">
-        <v>0.006032135558969164</v>
+        <v>0.002932338286904143</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.327101125211997</v>
+        <v>0.126513</v>
       </c>
       <c r="H3">
-        <v>0.327101125211997</v>
+        <v>0.379539</v>
       </c>
       <c r="I3">
-        <v>0.198308293066664</v>
+        <v>0.05885990084637888</v>
       </c>
       <c r="J3">
-        <v>0.198308293066664</v>
+        <v>0.05885990084637888</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.0880808476034</v>
+        <v>12.16771933333333</v>
       </c>
       <c r="N3">
-        <v>12.0880808476034</v>
+        <v>36.503158</v>
       </c>
       <c r="O3">
-        <v>0.5115820002124147</v>
+        <v>0.4399402504357141</v>
       </c>
       <c r="P3">
-        <v>0.5115820002124147</v>
+        <v>0.439940250435714</v>
       </c>
       <c r="Q3">
-        <v>3.954024846904663</v>
+        <v>1.539374676018</v>
       </c>
       <c r="R3">
-        <v>3.954024846904663</v>
+        <v>13.854372084162</v>
       </c>
       <c r="S3">
-        <v>0.1014509532257537</v>
+        <v>0.02589483951897723</v>
       </c>
       <c r="T3">
-        <v>0.1014509532257537</v>
+        <v>0.02589483951897722</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.327101125211997</v>
+        <v>0.126513</v>
       </c>
       <c r="H4">
-        <v>0.327101125211997</v>
+        <v>0.379539</v>
       </c>
       <c r="I4">
-        <v>0.198308293066664</v>
+        <v>0.05885990084637888</v>
       </c>
       <c r="J4">
-        <v>0.198308293066664</v>
+        <v>0.05885990084637888</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.1939911163792</v>
+        <v>2.451737666666667</v>
       </c>
       <c r="N4">
-        <v>1.1939911163792</v>
+        <v>7.355213</v>
       </c>
       <c r="O4">
-        <v>0.05053112824557491</v>
+        <v>0.08864587138537494</v>
       </c>
       <c r="P4">
-        <v>0.05053112824557491</v>
+        <v>0.08864587138537491</v>
       </c>
       <c r="Q4">
-        <v>0.3905558376607648</v>
+        <v>0.310176687423</v>
       </c>
       <c r="R4">
-        <v>0.3905558376607648</v>
+        <v>2.791590186807</v>
       </c>
       <c r="S4">
-        <v>0.01002074178911265</v>
+        <v>0.005217687200184024</v>
       </c>
       <c r="T4">
-        <v>0.01002074178911265</v>
+        <v>0.005217687200184023</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.327101125211997</v>
+        <v>0.126513</v>
       </c>
       <c r="H5">
-        <v>0.327101125211997</v>
+        <v>0.379539</v>
       </c>
       <c r="I5">
-        <v>0.198308293066664</v>
+        <v>0.05885990084637888</v>
       </c>
       <c r="J5">
-        <v>0.198308293066664</v>
+        <v>0.05885990084637888</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.6217935744948609</v>
+        <v>0.905288</v>
       </c>
       <c r="N5">
-        <v>0.6217935744948609</v>
+        <v>2.715864</v>
       </c>
       <c r="O5">
-        <v>0.02631504575206202</v>
+        <v>0.0327319046836808</v>
       </c>
       <c r="P5">
-        <v>0.02631504575206202</v>
+        <v>0.03273190468368079</v>
       </c>
       <c r="Q5">
-        <v>0.2033893778668587</v>
+        <v>0.114530700744</v>
       </c>
       <c r="R5">
-        <v>0.2033893778668587</v>
+        <v>1.030776306696</v>
       </c>
       <c r="S5">
-        <v>0.005218491805062587</v>
+        <v>0.001926596664194576</v>
       </c>
       <c r="T5">
-        <v>0.005218491805062587</v>
+        <v>0.001926596664194576</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.327101125211997</v>
+        <v>0.126513</v>
       </c>
       <c r="H6">
-        <v>0.327101125211997</v>
+        <v>0.379539</v>
       </c>
       <c r="I6">
-        <v>0.198308293066664</v>
+        <v>0.05885990084637888</v>
       </c>
       <c r="J6">
-        <v>0.198308293066664</v>
+        <v>0.05885990084637888</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.00621724652609</v>
+        <v>0.8153446666666667</v>
       </c>
       <c r="N6">
-        <v>9.00621724652609</v>
+        <v>2.446034</v>
       </c>
       <c r="O6">
-        <v>0.3811538565477776</v>
+        <v>0.02947988254973095</v>
       </c>
       <c r="P6">
-        <v>0.3811538565477776</v>
+        <v>0.02947988254973094</v>
       </c>
       <c r="Q6">
-        <v>2.945943795242377</v>
+        <v>0.103151699814</v>
       </c>
       <c r="R6">
-        <v>2.945943795242377</v>
+        <v>0.928365298326</v>
       </c>
       <c r="S6">
-        <v>0.07558597068776589</v>
+        <v>0.001735182963840059</v>
       </c>
       <c r="T6">
-        <v>0.07558597068776589</v>
+        <v>0.001735182963840058</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.544367986688384</v>
+        <v>0.126513</v>
       </c>
       <c r="H7">
-        <v>0.544367986688384</v>
+        <v>0.379539</v>
       </c>
       <c r="I7">
-        <v>0.3300284771883462</v>
+        <v>0.05885990084637888</v>
       </c>
       <c r="J7">
-        <v>0.3300284771883462</v>
+        <v>0.05885990084637888</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.718740829948282</v>
+        <v>9.939698</v>
       </c>
       <c r="N7">
-        <v>0.718740829948282</v>
+        <v>29.819094</v>
       </c>
       <c r="O7">
-        <v>0.03041796924217072</v>
+        <v>0.3593831438399412</v>
       </c>
       <c r="P7">
-        <v>0.03041796924217072</v>
+        <v>0.3593831438399411</v>
       </c>
       <c r="Q7">
-        <v>0.3912594985496845</v>
+        <v>1.257501013074</v>
       </c>
       <c r="R7">
-        <v>0.3912594985496845</v>
+        <v>11.317509117666</v>
       </c>
       <c r="S7">
-        <v>0.01003879606815556</v>
+        <v>0.02115325621227886</v>
       </c>
       <c r="T7">
-        <v>0.01003879606815556</v>
+        <v>0.02115325621227886</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.544367986688384</v>
+        <v>0.3272293333333334</v>
       </c>
       <c r="H8">
-        <v>0.544367986688384</v>
+        <v>0.9816880000000001</v>
       </c>
       <c r="I8">
-        <v>0.3300284771883462</v>
+        <v>0.1522427427539199</v>
       </c>
       <c r="J8">
-        <v>0.3300284771883462</v>
+        <v>0.1522427427539199</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.0880808476034</v>
+        <v>1.377875666666667</v>
       </c>
       <c r="N8">
-        <v>12.0880808476034</v>
+        <v>4.133627000000001</v>
       </c>
       <c r="O8">
-        <v>0.5115820002124147</v>
+        <v>0.0498189471055581</v>
       </c>
       <c r="P8">
-        <v>0.5115820002124147</v>
+        <v>0.04981894710555809</v>
       </c>
       <c r="Q8">
-        <v>6.580364233936278</v>
+        <v>0.4508813358195557</v>
       </c>
       <c r="R8">
-        <v>6.580364233936278</v>
+        <v>4.057932022376001</v>
       </c>
       <c r="S8">
-        <v>0.1688366284870715</v>
+        <v>0.007584573148462623</v>
       </c>
       <c r="T8">
-        <v>0.1688366284870715</v>
+        <v>0.007584573148462621</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.544367986688384</v>
+        <v>0.3272293333333334</v>
       </c>
       <c r="H9">
-        <v>0.544367986688384</v>
+        <v>0.9816880000000001</v>
       </c>
       <c r="I9">
-        <v>0.3300284771883462</v>
+        <v>0.1522427427539199</v>
       </c>
       <c r="J9">
-        <v>0.3300284771883462</v>
+        <v>0.1522427427539199</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.1939911163792</v>
+        <v>12.16771933333333</v>
       </c>
       <c r="N9">
-        <v>1.1939911163792</v>
+        <v>36.503158</v>
       </c>
       <c r="O9">
-        <v>0.05053112824557491</v>
+        <v>0.4399402504357141</v>
       </c>
       <c r="P9">
-        <v>0.05053112824557491</v>
+        <v>0.439940250435714</v>
       </c>
       <c r="Q9">
-        <v>0.6499705401471612</v>
+        <v>3.981634685633778</v>
       </c>
       <c r="R9">
-        <v>0.6499705401471612</v>
+        <v>35.834712170704</v>
       </c>
       <c r="S9">
-        <v>0.01667671130549611</v>
+        <v>0.0669777103741795</v>
       </c>
       <c r="T9">
-        <v>0.01667671130549611</v>
+        <v>0.0669777103741795</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.544367986688384</v>
+        <v>0.3272293333333334</v>
       </c>
       <c r="H10">
-        <v>0.544367986688384</v>
+        <v>0.9816880000000001</v>
       </c>
       <c r="I10">
-        <v>0.3300284771883462</v>
+        <v>0.1522427427539199</v>
       </c>
       <c r="J10">
-        <v>0.3300284771883462</v>
+        <v>0.1522427427539199</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6217935744948609</v>
+        <v>2.451737666666667</v>
       </c>
       <c r="N10">
-        <v>0.6217935744948609</v>
+        <v>7.355213</v>
       </c>
       <c r="O10">
-        <v>0.02631504575206202</v>
+        <v>0.08864587138537494</v>
       </c>
       <c r="P10">
-        <v>0.02631504575206202</v>
+        <v>0.08864587138537491</v>
       </c>
       <c r="Q10">
-        <v>0.3384845162835412</v>
+        <v>0.8022804821715557</v>
       </c>
       <c r="R10">
-        <v>0.3384845162835412</v>
+        <v>7.220524339544001</v>
       </c>
       <c r="S10">
-        <v>0.008684714476694687</v>
+        <v>0.0134956905935207</v>
       </c>
       <c r="T10">
-        <v>0.008684714476694687</v>
+        <v>0.0134956905935207</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.544367986688384</v>
+        <v>0.3272293333333334</v>
       </c>
       <c r="H11">
-        <v>0.544367986688384</v>
+        <v>0.9816880000000001</v>
       </c>
       <c r="I11">
-        <v>0.3300284771883462</v>
+        <v>0.1522427427539199</v>
       </c>
       <c r="J11">
-        <v>0.3300284771883462</v>
+        <v>0.1522427427539199</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>9.00621724652609</v>
+        <v>0.905288</v>
       </c>
       <c r="N11">
-        <v>9.00621724652609</v>
+        <v>2.715864</v>
       </c>
       <c r="O11">
-        <v>0.3811538565477776</v>
+        <v>0.0327319046836808</v>
       </c>
       <c r="P11">
-        <v>0.3811538565477776</v>
+        <v>0.03273190468368079</v>
       </c>
       <c r="Q11">
-        <v>4.902696350169609</v>
+        <v>0.2962367887146667</v>
       </c>
       <c r="R11">
-        <v>4.902696350169609</v>
+        <v>2.666131098432</v>
       </c>
       <c r="S11">
-        <v>0.1257916268509284</v>
+        <v>0.004983194944603441</v>
       </c>
       <c r="T11">
-        <v>0.1257916268509284</v>
+        <v>0.00498319494460344</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.316960992812194</v>
+        <v>0.3272293333333334</v>
       </c>
       <c r="H12">
-        <v>0.316960992812194</v>
+        <v>0.9816880000000001</v>
       </c>
       <c r="I12">
-        <v>0.1921607374861944</v>
+        <v>0.1522427427539199</v>
       </c>
       <c r="J12">
-        <v>0.1921607374861944</v>
+        <v>0.1522427427539199</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.718740829948282</v>
+        <v>0.8153446666666667</v>
       </c>
       <c r="N12">
-        <v>0.718740829948282</v>
+        <v>2.446034</v>
       </c>
       <c r="O12">
-        <v>0.03041796924217072</v>
+        <v>0.02947988254973095</v>
       </c>
       <c r="P12">
-        <v>0.03041796924217072</v>
+        <v>0.02947988254973094</v>
       </c>
       <c r="Q12">
-        <v>0.2278128070350678</v>
+        <v>0.2668046917102223</v>
       </c>
       <c r="R12">
-        <v>0.2278128070350678</v>
+        <v>2.401242225392</v>
       </c>
       <c r="S12">
-        <v>0.005845139402407903</v>
+        <v>0.004488098175434461</v>
       </c>
       <c r="T12">
-        <v>0.005845139402407903</v>
+        <v>0.00448809817543446</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.316960992812194</v>
+        <v>0.3272293333333334</v>
       </c>
       <c r="H13">
-        <v>0.316960992812194</v>
+        <v>0.9816880000000001</v>
       </c>
       <c r="I13">
-        <v>0.1921607374861944</v>
+        <v>0.1522427427539199</v>
       </c>
       <c r="J13">
-        <v>0.1921607374861944</v>
+        <v>0.1522427427539199</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.0880808476034</v>
+        <v>9.939698</v>
       </c>
       <c r="N13">
-        <v>12.0880808476034</v>
+        <v>29.819094</v>
       </c>
       <c r="O13">
-        <v>0.5115820002124147</v>
+        <v>0.3593831438399412</v>
       </c>
       <c r="P13">
-        <v>0.5115820002124147</v>
+        <v>0.3593831438399411</v>
       </c>
       <c r="Q13">
-        <v>3.831450106650441</v>
+        <v>3.252560750074667</v>
       </c>
       <c r="R13">
-        <v>3.831450106650441</v>
+        <v>29.273046750672</v>
       </c>
       <c r="S13">
-        <v>0.09830597444548007</v>
+        <v>0.05471347551771916</v>
       </c>
       <c r="T13">
-        <v>0.09830597444548007</v>
+        <v>0.05471347551771914</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.316960992812194</v>
+        <v>0.6264076666666667</v>
       </c>
       <c r="H14">
-        <v>0.316960992812194</v>
+        <v>1.879223</v>
       </c>
       <c r="I14">
-        <v>0.1921607374861944</v>
+        <v>0.2914348181563282</v>
       </c>
       <c r="J14">
-        <v>0.1921607374861944</v>
+        <v>0.2914348181563283</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.1939911163792</v>
+        <v>1.377875666666667</v>
       </c>
       <c r="N14">
-        <v>1.1939911163792</v>
+        <v>4.133627000000001</v>
       </c>
       <c r="O14">
-        <v>0.05053112824557491</v>
+        <v>0.0498189471055581</v>
       </c>
       <c r="P14">
-        <v>0.05053112824557491</v>
+        <v>0.04981894710555809</v>
       </c>
       <c r="Q14">
-        <v>0.3784486096564911</v>
+        <v>0.8631118813134446</v>
       </c>
       <c r="R14">
-        <v>0.3784486096564911</v>
+        <v>7.768006931821001</v>
       </c>
       <c r="S14">
-        <v>0.009710098869679143</v>
+        <v>0.01451897579044806</v>
       </c>
       <c r="T14">
-        <v>0.009710098869679143</v>
+        <v>0.01451897579044806</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.316960992812194</v>
+        <v>0.6264076666666667</v>
       </c>
       <c r="H15">
-        <v>0.316960992812194</v>
+        <v>1.879223</v>
       </c>
       <c r="I15">
-        <v>0.1921607374861944</v>
+        <v>0.2914348181563282</v>
       </c>
       <c r="J15">
-        <v>0.1921607374861944</v>
+        <v>0.2914348181563283</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.6217935744948609</v>
+        <v>12.16771933333333</v>
       </c>
       <c r="N15">
-        <v>0.6217935744948609</v>
+        <v>36.503158</v>
       </c>
       <c r="O15">
-        <v>0.02631504575206202</v>
+        <v>0.4399402504357141</v>
       </c>
       <c r="P15">
-        <v>0.02631504575206202</v>
+        <v>0.439940250435714</v>
       </c>
       <c r="Q15">
-        <v>0.197084308696134</v>
+        <v>7.621952676248222</v>
       </c>
       <c r="R15">
-        <v>0.197084308696134</v>
+        <v>68.597574086234</v>
       </c>
       <c r="S15">
-        <v>0.005056718598699185</v>
+        <v>0.1282139068853818</v>
       </c>
       <c r="T15">
-        <v>0.005056718598699185</v>
+        <v>0.1282139068853818</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.316960992812194</v>
+        <v>0.6264076666666667</v>
       </c>
       <c r="H16">
-        <v>0.316960992812194</v>
+        <v>1.879223</v>
       </c>
       <c r="I16">
-        <v>0.1921607374861944</v>
+        <v>0.2914348181563282</v>
       </c>
       <c r="J16">
-        <v>0.1921607374861944</v>
+        <v>0.2914348181563283</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.00621724652609</v>
+        <v>2.451737666666667</v>
       </c>
       <c r="N16">
-        <v>9.00621724652609</v>
+        <v>7.355213</v>
       </c>
       <c r="O16">
-        <v>0.3811538565477776</v>
+        <v>0.08864587138537494</v>
       </c>
       <c r="P16">
-        <v>0.3811538565477776</v>
+        <v>0.08864587138537491</v>
       </c>
       <c r="Q16">
-        <v>2.854619559941213</v>
+        <v>1.535787271055445</v>
       </c>
       <c r="R16">
-        <v>2.854619559941213</v>
+        <v>13.822085439499</v>
       </c>
       <c r="S16">
-        <v>0.07324280616992808</v>
+        <v>0.025834493407506</v>
       </c>
       <c r="T16">
-        <v>0.07324280616992808</v>
+        <v>0.025834493407506</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.461027515811835</v>
+        <v>0.6264076666666667</v>
       </c>
       <c r="H17">
-        <v>0.461027515811835</v>
+        <v>1.879223</v>
       </c>
       <c r="I17">
-        <v>0.2795024922587954</v>
+        <v>0.2914348181563282</v>
       </c>
       <c r="J17">
-        <v>0.2795024922587954</v>
+        <v>0.2914348181563283</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.718740829948282</v>
+        <v>0.905288</v>
       </c>
       <c r="N17">
-        <v>0.718740829948282</v>
+        <v>2.715864</v>
       </c>
       <c r="O17">
-        <v>0.03041796924217072</v>
+        <v>0.0327319046836808</v>
       </c>
       <c r="P17">
-        <v>0.03041796924217072</v>
+        <v>0.03273190468368079</v>
       </c>
       <c r="Q17">
-        <v>0.331359299343593</v>
+        <v>0.5670793437413334</v>
       </c>
       <c r="R17">
-        <v>0.331359299343593</v>
+        <v>5.103714093672</v>
       </c>
       <c r="S17">
-        <v>0.008501898212638099</v>
+        <v>0.009539216689398781</v>
       </c>
       <c r="T17">
-        <v>0.008501898212638099</v>
+        <v>0.009539216689398781</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.461027515811835</v>
+        <v>0.6264076666666667</v>
       </c>
       <c r="H18">
-        <v>0.461027515811835</v>
+        <v>1.879223</v>
       </c>
       <c r="I18">
-        <v>0.2795024922587954</v>
+        <v>0.2914348181563282</v>
       </c>
       <c r="J18">
-        <v>0.2795024922587954</v>
+        <v>0.2914348181563283</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>12.0880808476034</v>
+        <v>0.8153446666666667</v>
       </c>
       <c r="N18">
-        <v>12.0880808476034</v>
+        <v>2.446034</v>
       </c>
       <c r="O18">
-        <v>0.5115820002124147</v>
+        <v>0.02947988254973095</v>
       </c>
       <c r="P18">
-        <v>0.5115820002124147</v>
+        <v>0.02947988254973094</v>
       </c>
       <c r="Q18">
-        <v>5.572937884103216</v>
+        <v>0.5107381501757778</v>
       </c>
       <c r="R18">
-        <v>5.572937884103216</v>
+        <v>4.596643351582</v>
       </c>
       <c r="S18">
-        <v>0.1429884440541095</v>
+        <v>0.008591464210150753</v>
       </c>
       <c r="T18">
-        <v>0.1429884440541095</v>
+        <v>0.008591464210150751</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.461027515811835</v>
+        <v>0.6264076666666667</v>
       </c>
       <c r="H19">
-        <v>0.461027515811835</v>
+        <v>1.879223</v>
       </c>
       <c r="I19">
-        <v>0.2795024922587954</v>
+        <v>0.2914348181563282</v>
       </c>
       <c r="J19">
-        <v>0.2795024922587954</v>
+        <v>0.2914348181563283</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.1939911163792</v>
+        <v>9.939698</v>
       </c>
       <c r="N19">
-        <v>1.1939911163792</v>
+        <v>29.819094</v>
       </c>
       <c r="O19">
-        <v>0.05053112824557491</v>
+        <v>0.3593831438399412</v>
       </c>
       <c r="P19">
-        <v>0.05053112824557491</v>
+        <v>0.3593831438399411</v>
       </c>
       <c r="Q19">
-        <v>0.5504627582857021</v>
+        <v>6.226303031551334</v>
       </c>
       <c r="R19">
-        <v>0.5504627582857021</v>
+        <v>56.036727283962</v>
       </c>
       <c r="S19">
-        <v>0.014123576281287</v>
+        <v>0.1047367611734428</v>
       </c>
       <c r="T19">
-        <v>0.014123576281287</v>
+        <v>0.1047367611734428</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.461027515811835</v>
+        <v>0.33287</v>
       </c>
       <c r="H20">
-        <v>0.461027515811835</v>
+        <v>0.99861</v>
       </c>
       <c r="I20">
-        <v>0.2795024922587954</v>
+        <v>0.154867050775289</v>
       </c>
       <c r="J20">
-        <v>0.2795024922587954</v>
+        <v>0.154867050775289</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.6217935744948609</v>
+        <v>1.377875666666667</v>
       </c>
       <c r="N20">
-        <v>0.6217935744948609</v>
+        <v>4.133627000000001</v>
       </c>
       <c r="O20">
-        <v>0.02631504575206202</v>
+        <v>0.0498189471055581</v>
       </c>
       <c r="P20">
-        <v>0.02631504575206202</v>
+        <v>0.04981894710555809</v>
       </c>
       <c r="Q20">
-        <v>0.2866639469971269</v>
+        <v>0.4586534731633334</v>
       </c>
       <c r="R20">
-        <v>0.2866639469971269</v>
+        <v>4.12788125847</v>
       </c>
       <c r="S20">
-        <v>0.007355120871605562</v>
+        <v>0.007715313410967903</v>
       </c>
       <c r="T20">
-        <v>0.007355120871605562</v>
+        <v>0.007715313410967901</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,1053 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.33287</v>
+      </c>
+      <c r="H21">
+        <v>0.99861</v>
+      </c>
+      <c r="I21">
+        <v>0.154867050775289</v>
+      </c>
+      <c r="J21">
+        <v>0.154867050775289</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>12.16771933333333</v>
+      </c>
+      <c r="N21">
+        <v>36.503158</v>
+      </c>
+      <c r="O21">
+        <v>0.4399402504357141</v>
+      </c>
+      <c r="P21">
+        <v>0.439940250435714</v>
+      </c>
+      <c r="Q21">
+        <v>4.050268734486666</v>
+      </c>
+      <c r="R21">
+        <v>36.45241861038</v>
+      </c>
+      <c r="S21">
+        <v>0.06813224910232109</v>
+      </c>
+      <c r="T21">
+        <v>0.06813224910232107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.33287</v>
+      </c>
+      <c r="H22">
+        <v>0.99861</v>
+      </c>
+      <c r="I22">
+        <v>0.154867050775289</v>
+      </c>
+      <c r="J22">
+        <v>0.154867050775289</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.451737666666667</v>
+      </c>
+      <c r="N22">
+        <v>7.355213</v>
+      </c>
+      <c r="O22">
+        <v>0.08864587138537494</v>
+      </c>
+      <c r="P22">
+        <v>0.08864587138537491</v>
+      </c>
+      <c r="Q22">
+        <v>0.8161099171033334</v>
+      </c>
+      <c r="R22">
+        <v>7.34498925393</v>
+      </c>
+      <c r="S22">
+        <v>0.0137283246648586</v>
+      </c>
+      <c r="T22">
+        <v>0.0137283246648586</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.33287</v>
+      </c>
+      <c r="H23">
+        <v>0.99861</v>
+      </c>
+      <c r="I23">
+        <v>0.154867050775289</v>
+      </c>
+      <c r="J23">
+        <v>0.154867050775289</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.905288</v>
+      </c>
+      <c r="N23">
+        <v>2.715864</v>
+      </c>
+      <c r="O23">
+        <v>0.0327319046836808</v>
+      </c>
+      <c r="P23">
+        <v>0.03273190468368079</v>
+      </c>
+      <c r="Q23">
+        <v>0.30134321656</v>
+      </c>
+      <c r="R23">
+        <v>2.71208894904</v>
+      </c>
+      <c r="S23">
+        <v>0.005069093544619515</v>
+      </c>
+      <c r="T23">
+        <v>0.005069093544619513</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.33287</v>
+      </c>
+      <c r="H24">
+        <v>0.99861</v>
+      </c>
+      <c r="I24">
+        <v>0.154867050775289</v>
+      </c>
+      <c r="J24">
+        <v>0.154867050775289</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.8153446666666667</v>
+      </c>
+      <c r="N24">
+        <v>2.446034</v>
+      </c>
+      <c r="O24">
+        <v>0.02947988254973095</v>
+      </c>
+      <c r="P24">
+        <v>0.02947988254973094</v>
+      </c>
+      <c r="Q24">
+        <v>0.2714037791933334</v>
+      </c>
+      <c r="R24">
+        <v>2.44263401274</v>
+      </c>
+      <c r="S24">
+        <v>0.004565462467678739</v>
+      </c>
+      <c r="T24">
+        <v>0.004565462467678738</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.461027515811835</v>
-      </c>
-      <c r="H21">
-        <v>0.461027515811835</v>
-      </c>
-      <c r="I21">
-        <v>0.2795024922587954</v>
-      </c>
-      <c r="J21">
-        <v>0.2795024922587954</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>9.00621724652609</v>
-      </c>
-      <c r="N21">
-        <v>9.00621724652609</v>
-      </c>
-      <c r="O21">
-        <v>0.3811538565477776</v>
-      </c>
-      <c r="P21">
-        <v>0.3811538565477776</v>
-      </c>
-      <c r="Q21">
-        <v>4.152113964027627</v>
-      </c>
-      <c r="R21">
-        <v>4.152113964027627</v>
-      </c>
-      <c r="S21">
-        <v>0.1065334528391552</v>
-      </c>
-      <c r="T21">
-        <v>0.1065334528391552</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.33287</v>
+      </c>
+      <c r="H25">
+        <v>0.99861</v>
+      </c>
+      <c r="I25">
+        <v>0.154867050775289</v>
+      </c>
+      <c r="J25">
+        <v>0.154867050775289</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>9.939698</v>
+      </c>
+      <c r="N25">
+        <v>29.819094</v>
+      </c>
+      <c r="O25">
+        <v>0.3593831438399412</v>
+      </c>
+      <c r="P25">
+        <v>0.3593831438399411</v>
+      </c>
+      <c r="Q25">
+        <v>3.30862727326</v>
+      </c>
+      <c r="R25">
+        <v>29.77764545934</v>
+      </c>
+      <c r="S25">
+        <v>0.05565660758484316</v>
+      </c>
+      <c r="T25">
+        <v>0.05565660758484316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.506563</v>
+      </c>
+      <c r="H26">
+        <v>1.519689</v>
+      </c>
+      <c r="I26">
+        <v>0.2356773450352471</v>
+      </c>
+      <c r="J26">
+        <v>0.2356773450352472</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.377875666666667</v>
+      </c>
+      <c r="N26">
+        <v>4.133627000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.0498189471055581</v>
+      </c>
+      <c r="P26">
+        <v>0.04981894710555809</v>
+      </c>
+      <c r="Q26">
+        <v>0.6979808313336668</v>
+      </c>
+      <c r="R26">
+        <v>6.281827482003001</v>
+      </c>
+      <c r="S26">
+        <v>0.01174119718628934</v>
+      </c>
+      <c r="T26">
+        <v>0.01174119718628934</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.506563</v>
+      </c>
+      <c r="H27">
+        <v>1.519689</v>
+      </c>
+      <c r="I27">
+        <v>0.2356773450352471</v>
+      </c>
+      <c r="J27">
+        <v>0.2356773450352472</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>12.16771933333333</v>
+      </c>
+      <c r="N27">
+        <v>36.503158</v>
+      </c>
+      <c r="O27">
+        <v>0.4399402504357141</v>
+      </c>
+      <c r="P27">
+        <v>0.439940250435714</v>
+      </c>
+      <c r="Q27">
+        <v>6.163716408651332</v>
+      </c>
+      <c r="R27">
+        <v>55.473447677862</v>
+      </c>
+      <c r="S27">
+        <v>0.1036839501968308</v>
+      </c>
+      <c r="T27">
+        <v>0.1036839501968308</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.506563</v>
+      </c>
+      <c r="H28">
+        <v>1.519689</v>
+      </c>
+      <c r="I28">
+        <v>0.2356773450352471</v>
+      </c>
+      <c r="J28">
+        <v>0.2356773450352472</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>2.451737666666667</v>
+      </c>
+      <c r="N28">
+        <v>7.355213</v>
+      </c>
+      <c r="O28">
+        <v>0.08864587138537494</v>
+      </c>
+      <c r="P28">
+        <v>0.08864587138537491</v>
+      </c>
+      <c r="Q28">
+        <v>1.241959587639667</v>
+      </c>
+      <c r="R28">
+        <v>11.177636288757</v>
+      </c>
+      <c r="S28">
+        <v>0.02089182361644115</v>
+      </c>
+      <c r="T28">
+        <v>0.02089182361644115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.506563</v>
+      </c>
+      <c r="H29">
+        <v>1.519689</v>
+      </c>
+      <c r="I29">
+        <v>0.2356773450352471</v>
+      </c>
+      <c r="J29">
+        <v>0.2356773450352472</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.905288</v>
+      </c>
+      <c r="N29">
+        <v>2.715864</v>
+      </c>
+      <c r="O29">
+        <v>0.0327319046836808</v>
+      </c>
+      <c r="P29">
+        <v>0.03273190468368079</v>
+      </c>
+      <c r="Q29">
+        <v>0.458585405144</v>
+      </c>
+      <c r="R29">
+        <v>4.127268646296</v>
+      </c>
+      <c r="S29">
+        <v>0.007714168393796661</v>
+      </c>
+      <c r="T29">
+        <v>0.007714168393796661</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.506563</v>
+      </c>
+      <c r="H30">
+        <v>1.519689</v>
+      </c>
+      <c r="I30">
+        <v>0.2356773450352471</v>
+      </c>
+      <c r="J30">
+        <v>0.2356773450352472</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.8153446666666667</v>
+      </c>
+      <c r="N30">
+        <v>2.446034</v>
+      </c>
+      <c r="O30">
+        <v>0.02947988254973095</v>
+      </c>
+      <c r="P30">
+        <v>0.02947988254973094</v>
+      </c>
+      <c r="Q30">
+        <v>0.4130234403806667</v>
+      </c>
+      <c r="R30">
+        <v>3.717210963426</v>
+      </c>
+      <c r="S30">
+        <v>0.006947740451271502</v>
+      </c>
+      <c r="T30">
+        <v>0.006947740451271501</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.506563</v>
+      </c>
+      <c r="H31">
+        <v>1.519689</v>
+      </c>
+      <c r="I31">
+        <v>0.2356773450352471</v>
+      </c>
+      <c r="J31">
+        <v>0.2356773450352472</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>9.939698</v>
+      </c>
+      <c r="N31">
+        <v>29.819094</v>
+      </c>
+      <c r="O31">
+        <v>0.3593831438399412</v>
+      </c>
+      <c r="P31">
+        <v>0.3593831438399411</v>
+      </c>
+      <c r="Q31">
+        <v>5.035083237974</v>
+      </c>
+      <c r="R31">
+        <v>45.315749141766</v>
+      </c>
+      <c r="S31">
+        <v>0.08469846519061767</v>
+      </c>
+      <c r="T31">
+        <v>0.08469846519061767</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G32">
+        <v>0.229809</v>
+      </c>
+      <c r="H32">
+        <v>0.689427</v>
+      </c>
+      <c r="I32">
+        <v>0.1069181424328368</v>
+      </c>
+      <c r="J32">
+        <v>0.1069181424328368</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.377875666666667</v>
+      </c>
+      <c r="N32">
+        <v>4.133627000000001</v>
+      </c>
+      <c r="O32">
+        <v>0.0498189471055581</v>
+      </c>
+      <c r="P32">
+        <v>0.04981894710555809</v>
+      </c>
+      <c r="Q32">
+        <v>0.3166482290810001</v>
+      </c>
+      <c r="R32">
+        <v>2.849834061729001</v>
+      </c>
+      <c r="S32">
+        <v>0.005326549282486024</v>
+      </c>
+      <c r="T32">
+        <v>0.005326549282486023</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G33">
+        <v>0.229809</v>
+      </c>
+      <c r="H33">
+        <v>0.689427</v>
+      </c>
+      <c r="I33">
+        <v>0.1069181424328368</v>
+      </c>
+      <c r="J33">
+        <v>0.1069181424328368</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>12.16771933333333</v>
+      </c>
+      <c r="N33">
+        <v>36.503158</v>
+      </c>
+      <c r="O33">
+        <v>0.4399402504357141</v>
+      </c>
+      <c r="P33">
+        <v>0.439940250435714</v>
+      </c>
+      <c r="Q33">
+        <v>2.796251412274</v>
+      </c>
+      <c r="R33">
+        <v>25.166262710466</v>
+      </c>
+      <c r="S33">
+        <v>0.04703759435802357</v>
+      </c>
+      <c r="T33">
+        <v>0.04703759435802357</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G34">
+        <v>0.229809</v>
+      </c>
+      <c r="H34">
+        <v>0.689427</v>
+      </c>
+      <c r="I34">
+        <v>0.1069181424328368</v>
+      </c>
+      <c r="J34">
+        <v>0.1069181424328368</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>2.451737666666667</v>
+      </c>
+      <c r="N34">
+        <v>7.355213</v>
+      </c>
+      <c r="O34">
+        <v>0.08864587138537494</v>
+      </c>
+      <c r="P34">
+        <v>0.08864587138537491</v>
+      </c>
+      <c r="Q34">
+        <v>0.5634313814390001</v>
+      </c>
+      <c r="R34">
+        <v>5.070882432951</v>
+      </c>
+      <c r="S34">
+        <v>0.009477851902864451</v>
+      </c>
+      <c r="T34">
+        <v>0.009477851902864449</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G35">
+        <v>0.229809</v>
+      </c>
+      <c r="H35">
+        <v>0.689427</v>
+      </c>
+      <c r="I35">
+        <v>0.1069181424328368</v>
+      </c>
+      <c r="J35">
+        <v>0.1069181424328368</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.905288</v>
+      </c>
+      <c r="N35">
+        <v>2.715864</v>
+      </c>
+      <c r="O35">
+        <v>0.0327319046836808</v>
+      </c>
+      <c r="P35">
+        <v>0.03273190468368079</v>
+      </c>
+      <c r="Q35">
+        <v>0.208043329992</v>
+      </c>
+      <c r="R35">
+        <v>1.872389969928</v>
+      </c>
+      <c r="S35">
+        <v>0.003499634447067822</v>
+      </c>
+      <c r="T35">
+        <v>0.003499634447067821</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G36">
+        <v>0.229809</v>
+      </c>
+      <c r="H36">
+        <v>0.689427</v>
+      </c>
+      <c r="I36">
+        <v>0.1069181424328368</v>
+      </c>
+      <c r="J36">
+        <v>0.1069181424328368</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.8153446666666667</v>
+      </c>
+      <c r="N36">
+        <v>2.446034</v>
+      </c>
+      <c r="O36">
+        <v>0.02947988254973095</v>
+      </c>
+      <c r="P36">
+        <v>0.02947988254973094</v>
+      </c>
+      <c r="Q36">
+        <v>0.187373542502</v>
+      </c>
+      <c r="R36">
+        <v>1.686361882518</v>
+      </c>
+      <c r="S36">
+        <v>0.003151934281355434</v>
+      </c>
+      <c r="T36">
+        <v>0.003151934281355433</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G37">
+        <v>0.229809</v>
+      </c>
+      <c r="H37">
+        <v>0.689427</v>
+      </c>
+      <c r="I37">
+        <v>0.1069181424328368</v>
+      </c>
+      <c r="J37">
+        <v>0.1069181424328368</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>9.939698</v>
+      </c>
+      <c r="N37">
+        <v>29.819094</v>
+      </c>
+      <c r="O37">
+        <v>0.3593831438399412</v>
+      </c>
+      <c r="P37">
+        <v>0.3593831438399411</v>
+      </c>
+      <c r="Q37">
+        <v>2.284232057682</v>
+      </c>
+      <c r="R37">
+        <v>20.558088519138</v>
+      </c>
+      <c r="S37">
+        <v>0.03842457816103952</v>
+      </c>
+      <c r="T37">
+        <v>0.03842457816103951</v>
       </c>
     </row>
   </sheetData>
